--- a/data/trans_dic/ip24_2023_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/ip24_2023_R-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,75; 55,83</t>
+          <t>8,31; 57,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,6; 24,17</t>
+          <t>2,48; 24,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,69; 33,31</t>
+          <t>6,18; 32,19</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,45; 17,44</t>
+          <t>6,33; 17,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,82; 15,69</t>
+          <t>6,74; 15,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,2; 14,41</t>
+          <t>7,65; 15,53</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,2; 10,91</t>
+          <t>5,2; 11,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,23; 11,27</t>
+          <t>4,97; 11,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,74; 10,37</t>
+          <t>5,93; 10,12</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,42; 18,62</t>
+          <t>8,72; 18,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,39; 11,82</t>
+          <t>3,34; 12,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,81; 13,71</t>
+          <t>6,68; 13,21</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,12; 26,63</t>
+          <t>15,7; 26,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,16; 15,22</t>
+          <t>7,49; 15,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,83; 19,22</t>
+          <t>12,59; 19,15</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>10,68; 15,33</t>
+          <t>10,89; 15,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,83; 10,66</t>
+          <t>6,86; 10,54</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,51; 12,44</t>
+          <t>9,57; 12,5</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/ip24_2023_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/ip24_2023_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>25,41%</t>
+          <t>10,59%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,23%</t>
+          <t>11,3%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16,04%</t>
+          <t>10,98%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,31; 57,36</t>
+          <t>7,05; 15,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,48; 24,25</t>
+          <t>6,48; 17,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,18; 32,19</t>
+          <t>7,67; 14,92</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>10,73%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
+          <t>7,58%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,7%</t>
+          <t>7,56%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,33; 17,05</t>
+          <t>4,85; 10,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,74; 15,73</t>
+          <t>5,09; 11,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,65; 15,53</t>
+          <t>5,71; 9,9</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,67%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,67%</t>
+          <t>12,61%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,67%</t>
+          <t>9,2%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,2; 11,16</t>
+          <t>2,75; 11,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,97; 11,48</t>
+          <t>8,3; 18,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,93; 10,12</t>
+          <t>6,29; 12,97</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13,04%</t>
+          <t>10,74%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,23%</t>
+          <t>21,34%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,67%</t>
+          <t>16,26%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,72; 18,53</t>
+          <t>7,43; 15,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,34; 12,36</t>
+          <t>16,01; 27,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,68; 13,21</t>
+          <t>13,19; 19,93</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>20,87%</t>
+          <t>8,41%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>10,58%</t>
+          <t>12,77%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>15,79%</t>
+          <t>10,74%</t>
         </is>
       </c>
     </row>
@@ -779,86 +779,35 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15,7; 26,62</t>
+          <t>6,68; 10,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,49; 15,11</t>
+          <t>10,6; 15,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,59; 19,15</t>
+          <t>9,33; 12,58</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>12,93%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>8,58%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>10,86%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>10,89; 15,34</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>6,86; 10,54</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>9,57; 12,5</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
